--- a/output/observations-summary.xlsx
+++ b/output/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="174">
   <si>
     <t>Profile</t>
   </si>
@@ -459,6 +459,36 @@
   </si>
   <si>
     <t>https://mitre.org/fhir/space-health/ValueSet/hydration-type-vs (preferred)</t>
+  </si>
+  <si>
+    <t>space-evs-minutes-per-week</t>
+  </si>
+  <si>
+    <t>Space Exercise Vital Sign Minutes Per Week</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#activity</t>
+  </si>
+  <si>
+    <t>null#82290-8</t>
+  </si>
+  <si>
+    <t>space-exercise-activity-group</t>
+  </si>
+  <si>
+    <t>Space Exercise Activity Group</t>
+  </si>
+  <si>
+    <t>null#PAPanel</t>
+  </si>
+  <si>
+    <t>space-exercise-activity-measure</t>
+  </si>
+  <si>
+    <t>Space Exercise Activity Measure</t>
+  </si>
+  <si>
+    <t>Quantityĵ, CodeableConceptĵ</t>
   </si>
   <si>
     <t>space-nutrition-intake</t>
@@ -637,7 +667,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K93"/>
+  <dimension ref="A1:K97"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -3457,13 +3487,13 @@
         <v>14</v>
       </c>
       <c r="E81" t="s" s="2">
-        <v>14</v>
+        <v>152</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>19</v>
@@ -3480,28 +3510,28 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>14</v>
+        <v>153</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="D82" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E82" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="I82" t="s" s="2">
         <v>17</v>
@@ -3515,28 +3545,28 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>14</v>
+        <v>156</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="D83" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E83" t="s" s="2">
-        <v>154</v>
+        <v>14</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>69</v>
+        <v>158</v>
       </c>
       <c r="I83" t="s" s="2">
         <v>17</v>
@@ -3553,7 +3583,7 @@
         <v>14</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C84" t="s" s="2">
         <v>14</v>
@@ -3562,7 +3592,7 @@
         <v>14</v>
       </c>
       <c r="E84" t="s" s="2">
-        <v>155</v>
+        <v>14</v>
       </c>
       <c r="F84" t="s" s="2">
         <v>14</v>
@@ -3585,28 +3615,28 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>14</v>
+        <v>159</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>14</v>
+        <v>161</v>
       </c>
       <c r="D85" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E85" t="s" s="2">
-        <v>156</v>
+        <v>14</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H85" t="s" s="2">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="I85" t="s" s="2">
         <v>17</v>
@@ -3620,28 +3650,28 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>157</v>
+        <v>14</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>119</v>
+        <v>14</v>
       </c>
       <c r="D86" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E86" t="s" s="2">
-        <v>14</v>
+        <v>163</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>159</v>
+        <v>14</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="I86" t="s" s="2">
         <v>17</v>
@@ -3658,7 +3688,7 @@
         <v>14</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C87" t="s" s="2">
         <v>14</v>
@@ -3667,7 +3697,7 @@
         <v>14</v>
       </c>
       <c r="E87" t="s" s="2">
-        <v>14</v>
+        <v>164</v>
       </c>
       <c r="F87" t="s" s="2">
         <v>14</v>
@@ -3693,7 +3723,7 @@
         <v>14</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C88" t="s" s="2">
         <v>14</v>
@@ -3702,7 +3732,7 @@
         <v>14</v>
       </c>
       <c r="E88" t="s" s="2">
-        <v>121</v>
+        <v>165</v>
       </c>
       <c r="F88" t="s" s="2">
         <v>14</v>
@@ -3728,7 +3758,7 @@
         <v>14</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C89" t="s" s="2">
         <v>14</v>
@@ -3737,7 +3767,7 @@
         <v>14</v>
       </c>
       <c r="E89" t="s" s="2">
-        <v>122</v>
+        <v>166</v>
       </c>
       <c r="F89" t="s" s="2">
         <v>14</v>
@@ -3760,28 +3790,28 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>14</v>
+        <v>167</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="D90" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E90" t="s" s="2">
-        <v>123</v>
+        <v>14</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>14</v>
+        <v>169</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H90" t="s" s="2">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="I90" t="s" s="2">
         <v>17</v>
@@ -3798,7 +3828,7 @@
         <v>14</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="C91" t="s" s="2">
         <v>14</v>
@@ -3807,7 +3837,7 @@
         <v>14</v>
       </c>
       <c r="E91" t="s" s="2">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="F91" t="s" s="2">
         <v>14</v>
@@ -3833,7 +3863,7 @@
         <v>14</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="C92" t="s" s="2">
         <v>14</v>
@@ -3842,7 +3872,7 @@
         <v>14</v>
       </c>
       <c r="E92" t="s" s="2">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F92" t="s" s="2">
         <v>14</v>
@@ -3865,36 +3895,176 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>160</v>
+        <v>14</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="C93" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D93" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E93" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="F93" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B94" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="C94" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D94" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E94" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="F94" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="C95" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D95" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E95" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="F95" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="C96" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D96" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E96" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="F96" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="B97" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="C97" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="D93" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E93" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="F93" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G93" t="s" s="2">
+      <c r="D97" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E97" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="F97" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G97" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="H93" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="I93" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="J93" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K93" t="s" s="2">
+      <c r="H97" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K97" t="s" s="2">
         <v>14</v>
       </c>
     </row>

--- a/output/observations-summary.xlsx
+++ b/output/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="177">
   <si>
     <t>Profile</t>
   </si>
@@ -300,6 +300,15 @@
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>artemis-radiation-exposure</t>
+  </si>
+  <si>
+    <t>Artemis Radiation Exposure</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#laboratory</t>
   </si>
   <si>
     <t>BarotraumaAssessment</t>
@@ -667,7 +676,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K97"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2116,22 +2125,22 @@
         <v>97</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="D42" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E42" t="s" s="2">
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>17</v>
@@ -2157,7 +2166,7 @@
         <v>14</v>
       </c>
       <c r="E43" t="s" s="2">
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>14</v>
@@ -2192,7 +2201,7 @@
         <v>14</v>
       </c>
       <c r="E44" t="s" s="2">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>14</v>
@@ -2201,7 +2210,7 @@
         <v>14</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>17</v>
@@ -2227,7 +2236,7 @@
         <v>14</v>
       </c>
       <c r="E45" t="s" s="2">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>14</v>
@@ -2250,10 +2259,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C46" t="s" s="2">
         <v>14</v>
@@ -2268,7 +2277,7 @@
         <v>14</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>90</v>
@@ -2285,28 +2294,28 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="D47" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E47" t="s" s="2">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>17</v>
@@ -2323,7 +2332,7 @@
         <v>14</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C48" t="s" s="2">
         <v>14</v>
@@ -2332,7 +2341,7 @@
         <v>14</v>
       </c>
       <c r="E48" t="s" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>14</v>
@@ -2341,7 +2350,7 @@
         <v>14</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>17</v>
@@ -2358,17 +2367,17 @@
         <v>14</v>
       </c>
       <c r="B49" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="C49" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D49" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E49" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="C49" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="D49" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E49" t="s" s="2">
-        <v>107</v>
-      </c>
       <c r="F49" t="s" s="2">
         <v>14</v>
       </c>
@@ -2376,7 +2385,7 @@
         <v>14</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>17</v>
@@ -2393,7 +2402,7 @@
         <v>14</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C50" t="s" s="2">
         <v>14</v>
@@ -2402,7 +2411,7 @@
         <v>14</v>
       </c>
       <c r="E50" t="s" s="2">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>14</v>
@@ -2425,28 +2434,28 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="D51" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E51" t="s" s="2">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>17</v>
@@ -2463,7 +2472,7 @@
         <v>14</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C52" t="s" s="2">
         <v>14</v>
@@ -2472,7 +2481,7 @@
         <v>14</v>
       </c>
       <c r="E52" t="s" s="2">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>14</v>
@@ -2498,17 +2507,17 @@
         <v>14</v>
       </c>
       <c r="B53" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="C53" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D53" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E53" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="C53" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="D53" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E53" t="s" s="2">
-        <v>113</v>
-      </c>
       <c r="F53" t="s" s="2">
         <v>14</v>
       </c>
@@ -2516,7 +2525,7 @@
         <v>14</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>17</v>
@@ -2533,7 +2542,7 @@
         <v>14</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C54" t="s" s="2">
         <v>14</v>
@@ -2542,7 +2551,7 @@
         <v>14</v>
       </c>
       <c r="E54" t="s" s="2">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F54" t="s" s="2">
         <v>14</v>
@@ -2551,7 +2560,7 @@
         <v>14</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>17</v>
@@ -2565,10 +2574,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C55" t="s" s="2">
         <v>14</v>
@@ -2577,16 +2586,16 @@
         <v>14</v>
       </c>
       <c r="E55" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F55" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>17</v>
@@ -2603,7 +2612,7 @@
         <v>14</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C56" t="s" s="2">
         <v>14</v>
@@ -2612,7 +2621,7 @@
         <v>14</v>
       </c>
       <c r="E56" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>14</v>
@@ -2621,7 +2630,7 @@
         <v>14</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>17</v>
@@ -2635,28 +2644,28 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>117</v>
+        <v>14</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>119</v>
+        <v>14</v>
       </c>
       <c r="D57" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E57" t="s" s="2">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>17</v>
@@ -2673,7 +2682,7 @@
         <v>14</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C58" t="s" s="2">
         <v>14</v>
@@ -2682,7 +2691,7 @@
         <v>14</v>
       </c>
       <c r="E58" t="s" s="2">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>14</v>
@@ -2708,16 +2717,16 @@
         <v>14</v>
       </c>
       <c r="B59" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="C59" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D59" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E59" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="C59" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="D59" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E59" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="F59" t="s" s="2">
         <v>14</v>
@@ -2743,7 +2752,7 @@
         <v>14</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C60" t="s" s="2">
         <v>14</v>
@@ -2752,7 +2761,7 @@
         <v>14</v>
       </c>
       <c r="E60" t="s" s="2">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F60" t="s" s="2">
         <v>14</v>
@@ -2761,7 +2770,7 @@
         <v>14</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>17</v>
@@ -2775,13 +2784,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="D61" t="s" s="2">
         <v>14</v>
@@ -2793,10 +2802,10 @@
         <v>14</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>17</v>
@@ -2813,7 +2822,7 @@
         <v>14</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C62" t="s" s="2">
         <v>14</v>
@@ -2822,7 +2831,7 @@
         <v>14</v>
       </c>
       <c r="E62" t="s" s="2">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="F62" t="s" s="2">
         <v>14</v>
@@ -2848,7 +2857,7 @@
         <v>14</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C63" t="s" s="2">
         <v>14</v>
@@ -2857,7 +2866,7 @@
         <v>14</v>
       </c>
       <c r="E63" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F63" t="s" s="2">
         <v>14</v>
@@ -2883,7 +2892,7 @@
         <v>14</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C64" t="s" s="2">
         <v>14</v>
@@ -2892,7 +2901,7 @@
         <v>14</v>
       </c>
       <c r="E64" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F64" t="s" s="2">
         <v>14</v>
@@ -2901,7 +2910,7 @@
         <v>14</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>127</v>
+        <v>69</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>17</v>
@@ -2918,7 +2927,7 @@
         <v>14</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C65" t="s" s="2">
         <v>14</v>
@@ -2927,7 +2936,7 @@
         <v>14</v>
       </c>
       <c r="E65" t="s" s="2">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F65" t="s" s="2">
         <v>14</v>
@@ -2936,7 +2945,7 @@
         <v>14</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>127</v>
+        <v>69</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>17</v>
@@ -2953,7 +2962,7 @@
         <v>14</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C66" t="s" s="2">
         <v>14</v>
@@ -2962,7 +2971,7 @@
         <v>14</v>
       </c>
       <c r="E66" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F66" t="s" s="2">
         <v>14</v>
@@ -2971,7 +2980,7 @@
         <v>14</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>127</v>
+        <v>69</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>17</v>
@@ -2988,7 +2997,7 @@
         <v>14</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C67" t="s" s="2">
         <v>14</v>
@@ -2997,7 +3006,7 @@
         <v>14</v>
       </c>
       <c r="E67" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F67" t="s" s="2">
         <v>14</v>
@@ -3006,7 +3015,7 @@
         <v>14</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>127</v>
+        <v>69</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>17</v>
@@ -3023,7 +3032,7 @@
         <v>14</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C68" t="s" s="2">
         <v>14</v>
@@ -3032,7 +3041,7 @@
         <v>14</v>
       </c>
       <c r="E68" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F68" t="s" s="2">
         <v>14</v>
@@ -3041,7 +3050,7 @@
         <v>14</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I68" t="s" s="2">
         <v>17</v>
@@ -3058,7 +3067,7 @@
         <v>14</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C69" t="s" s="2">
         <v>14</v>
@@ -3067,7 +3076,7 @@
         <v>14</v>
       </c>
       <c r="E69" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F69" t="s" s="2">
         <v>14</v>
@@ -3076,7 +3085,7 @@
         <v>14</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>17</v>
@@ -3093,7 +3102,7 @@
         <v>14</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C70" t="s" s="2">
         <v>14</v>
@@ -3102,7 +3111,7 @@
         <v>14</v>
       </c>
       <c r="E70" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F70" t="s" s="2">
         <v>14</v>
@@ -3111,7 +3120,7 @@
         <v>14</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>17</v>
@@ -3128,7 +3137,7 @@
         <v>14</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C71" t="s" s="2">
         <v>14</v>
@@ -3137,7 +3146,7 @@
         <v>14</v>
       </c>
       <c r="E71" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F71" t="s" s="2">
         <v>14</v>
@@ -3146,7 +3155,7 @@
         <v>14</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="I71" t="s" s="2">
         <v>17</v>
@@ -3160,10 +3169,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>135</v>
+        <v>14</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="C72" t="s" s="2">
         <v>14</v>
@@ -3172,16 +3181,16 @@
         <v>14</v>
       </c>
       <c r="E72" t="s" s="2">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F72" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>14</v>
+        <v>130</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>17</v>
@@ -3198,7 +3207,7 @@
         <v>14</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="C73" t="s" s="2">
         <v>14</v>
@@ -3207,7 +3216,7 @@
         <v>14</v>
       </c>
       <c r="E73" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F73" t="s" s="2">
         <v>14</v>
@@ -3216,7 +3225,7 @@
         <v>14</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>69</v>
+        <v>130</v>
       </c>
       <c r="I73" t="s" s="2">
         <v>17</v>
@@ -3233,17 +3242,17 @@
         <v>14</v>
       </c>
       <c r="B74" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="C74" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D74" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E74" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="C74" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="D74" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E74" t="s" s="2">
-        <v>139</v>
-      </c>
       <c r="F74" t="s" s="2">
         <v>14</v>
       </c>
@@ -3251,7 +3260,7 @@
         <v>14</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="I74" t="s" s="2">
         <v>17</v>
@@ -3268,7 +3277,7 @@
         <v>14</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="C75" t="s" s="2">
         <v>14</v>
@@ -3277,7 +3286,7 @@
         <v>14</v>
       </c>
       <c r="E75" t="s" s="2">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F75" t="s" s="2">
         <v>14</v>
@@ -3286,7 +3295,7 @@
         <v>14</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="I75" t="s" s="2">
         <v>17</v>
@@ -3300,10 +3309,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>14</v>
+        <v>138</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C76" t="s" s="2">
         <v>14</v>
@@ -3312,16 +3321,16 @@
         <v>14</v>
       </c>
       <c r="E76" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F76" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="I76" t="s" s="2">
         <v>17</v>
@@ -3338,7 +3347,7 @@
         <v>14</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C77" t="s" s="2">
         <v>14</v>
@@ -3347,7 +3356,7 @@
         <v>14</v>
       </c>
       <c r="E77" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F77" t="s" s="2">
         <v>14</v>
@@ -3373,7 +3382,7 @@
         <v>14</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C78" t="s" s="2">
         <v>14</v>
@@ -3382,7 +3391,7 @@
         <v>14</v>
       </c>
       <c r="E78" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F78" t="s" s="2">
         <v>14</v>
@@ -3408,7 +3417,7 @@
         <v>14</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C79" t="s" s="2">
         <v>14</v>
@@ -3417,7 +3426,7 @@
         <v>14</v>
       </c>
       <c r="E79" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F79" t="s" s="2">
         <v>14</v>
@@ -3440,28 +3449,28 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>145</v>
+        <v>14</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>147</v>
+        <v>14</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E80" t="s" s="2">
-        <v>14</v>
+        <v>144</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>148</v>
+        <v>14</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="I80" t="s" s="2">
         <v>17</v>
@@ -3475,28 +3484,28 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>149</v>
+        <v>14</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>151</v>
+        <v>14</v>
       </c>
       <c r="D81" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E81" t="s" s="2">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="I81" t="s" s="2">
         <v>17</v>
@@ -3510,28 +3519,28 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>153</v>
+        <v>14</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>151</v>
+        <v>14</v>
       </c>
       <c r="D82" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E82" t="s" s="2">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="I82" t="s" s="2">
         <v>17</v>
@@ -3545,28 +3554,28 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>156</v>
+        <v>14</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>151</v>
+        <v>14</v>
       </c>
       <c r="D83" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E83" t="s" s="2">
-        <v>14</v>
+        <v>147</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>158</v>
+        <v>69</v>
       </c>
       <c r="I83" t="s" s="2">
         <v>17</v>
@@ -3580,13 +3589,13 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>14</v>
+        <v>148</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="D84" t="s" s="2">
         <v>14</v>
@@ -3595,13 +3604,13 @@
         <v>14</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="I84" t="s" s="2">
         <v>17</v>
@@ -3615,25 +3624,25 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D85" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E85" t="s" s="2">
-        <v>14</v>
+        <v>155</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>162</v>
+        <v>75</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>19</v>
@@ -3650,28 +3659,28 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>14</v>
+        <v>156</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="D86" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E86" t="s" s="2">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="I86" t="s" s="2">
         <v>17</v>
@@ -3685,28 +3694,28 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>14</v>
+        <v>159</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>160</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="D87" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E87" t="s" s="2">
-        <v>164</v>
+        <v>14</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>69</v>
+        <v>161</v>
       </c>
       <c r="I87" t="s" s="2">
         <v>17</v>
@@ -3732,7 +3741,7 @@
         <v>14</v>
       </c>
       <c r="E88" t="s" s="2">
-        <v>165</v>
+        <v>14</v>
       </c>
       <c r="F88" t="s" s="2">
         <v>14</v>
@@ -3755,28 +3764,28 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>14</v>
+        <v>164</v>
       </c>
       <c r="D89" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E89" t="s" s="2">
-        <v>166</v>
+        <v>14</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>14</v>
+        <v>165</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H89" t="s" s="2">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="I89" t="s" s="2">
         <v>17</v>
@@ -3790,28 +3799,28 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>167</v>
+        <v>14</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>119</v>
+        <v>14</v>
       </c>
       <c r="D90" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E90" t="s" s="2">
-        <v>14</v>
+        <v>166</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>169</v>
+        <v>14</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H90" t="s" s="2">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="I90" t="s" s="2">
         <v>17</v>
@@ -3828,7 +3837,7 @@
         <v>14</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C91" t="s" s="2">
         <v>14</v>
@@ -3837,7 +3846,7 @@
         <v>14</v>
       </c>
       <c r="E91" t="s" s="2">
-        <v>14</v>
+        <v>167</v>
       </c>
       <c r="F91" t="s" s="2">
         <v>14</v>
@@ -3863,16 +3872,16 @@
         <v>14</v>
       </c>
       <c r="B92" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="C92" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D92" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E92" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="C92" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="D92" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E92" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="F92" t="s" s="2">
         <v>14</v>
@@ -3898,7 +3907,7 @@
         <v>14</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C93" t="s" s="2">
         <v>14</v>
@@ -3907,7 +3916,7 @@
         <v>14</v>
       </c>
       <c r="E93" t="s" s="2">
-        <v>122</v>
+        <v>169</v>
       </c>
       <c r="F93" t="s" s="2">
         <v>14</v>
@@ -3930,28 +3939,28 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>14</v>
+        <v>170</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="D94" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E94" t="s" s="2">
-        <v>123</v>
+        <v>14</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>14</v>
+        <v>172</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H94" t="s" s="2">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="I94" t="s" s="2">
         <v>17</v>
@@ -3968,7 +3977,7 @@
         <v>14</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C95" t="s" s="2">
         <v>14</v>
@@ -3977,7 +3986,7 @@
         <v>14</v>
       </c>
       <c r="E95" t="s" s="2">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="F95" t="s" s="2">
         <v>14</v>
@@ -4003,7 +4012,7 @@
         <v>14</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C96" t="s" s="2">
         <v>14</v>
@@ -4012,7 +4021,7 @@
         <v>14</v>
       </c>
       <c r="E96" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F96" t="s" s="2">
         <v>14</v>
@@ -4035,36 +4044,176 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>170</v>
+        <v>14</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>171</v>
       </c>
       <c r="C97" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D97" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E97" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="F97" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="C98" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D98" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E98" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="F98" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="C99" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D99" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E99" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="F99" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B100" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="C100" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D100" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E100" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="F100" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="B101" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="C101" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="D97" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E97" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="F97" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G97" t="s" s="2">
+      <c r="D101" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E101" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="F101" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G101" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="H97" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="I97" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="J97" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K97" t="s" s="2">
+      <c r="H101" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K101" t="s" s="2">
         <v>14</v>
       </c>
     </row>

--- a/output/observations-summary.xlsx
+++ b/output/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="185">
   <si>
     <t>Profile</t>
   </si>
@@ -458,6 +458,18 @@
     <t>LOINC#LA6161-8</t>
   </si>
   <si>
+    <t>habitat-environmental-observation</t>
+  </si>
+  <si>
+    <t>Habitat Environmental Monitoring</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#environmental</t>
+  </si>
+  <si>
+    <t>dateTimeĵ</t>
+  </si>
+  <si>
     <t>hydration-status-observation</t>
   </si>
   <si>
@@ -468,6 +480,18 @@
   </si>
   <si>
     <t>https://mitre.org/fhir/space-health/ValueSet/hydration-type-vs (preferred)</t>
+  </si>
+  <si>
+    <t>isru-production-log</t>
+  </si>
+  <si>
+    <t>ISRU Production Log</t>
+  </si>
+  <si>
+    <t>observation-category-aerospace#operational</t>
+  </si>
+  <si>
+    <t>CodeableConcept, string</t>
   </si>
   <si>
     <t>space-evs-minutes-per-week</t>
@@ -676,7 +700,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K101"/>
+  <dimension ref="A1:K105"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -3604,10 +3628,10 @@
         <v>14</v>
       </c>
       <c r="F84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G84" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>16</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>19</v>
@@ -3636,13 +3660,13 @@
         <v>14</v>
       </c>
       <c r="E85" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F85" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="F85" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="G85" t="s" s="2">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>19</v>
@@ -3665,22 +3689,22 @@
         <v>157</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D86" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E86" t="s" s="2">
-        <v>158</v>
+        <v>14</v>
       </c>
       <c r="F86" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I86" t="s" s="2">
         <v>17</v>
@@ -3694,28 +3718,28 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="C87" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D87" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E87" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F87" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H87" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="B87" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="C87" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="D87" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E87" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="F87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G87" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="I87" t="s" s="2">
         <v>17</v>
@@ -3732,7 +3756,7 @@
         <v>14</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C88" t="s" s="2">
         <v>14</v>
@@ -3764,25 +3788,25 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="C89" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="B89" t="s" s="2">
+      <c r="D89" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E89" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="C89" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="D89" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E89" t="s" s="2">
-        <v>14</v>
-      </c>
       <c r="F89" t="s" s="2">
-        <v>165</v>
+        <v>75</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>19</v>
@@ -3799,13 +3823,13 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>14</v>
+        <v>164</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="D90" t="s" s="2">
         <v>14</v>
@@ -3814,13 +3838,13 @@
         <v>166</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="H90" t="s" s="2">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="I90" t="s" s="2">
         <v>17</v>
@@ -3834,28 +3858,28 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>14</v>
+        <v>167</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="D91" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E91" t="s" s="2">
-        <v>167</v>
+        <v>14</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H91" t="s" s="2">
-        <v>69</v>
+        <v>169</v>
       </c>
       <c r="I91" t="s" s="2">
         <v>17</v>
@@ -3872,7 +3896,7 @@
         <v>14</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C92" t="s" s="2">
         <v>14</v>
@@ -3881,7 +3905,7 @@
         <v>14</v>
       </c>
       <c r="E92" t="s" s="2">
-        <v>168</v>
+        <v>14</v>
       </c>
       <c r="F92" t="s" s="2">
         <v>14</v>
@@ -3904,28 +3928,28 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>14</v>
+        <v>170</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>14</v>
+        <v>172</v>
       </c>
       <c r="D93" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E93" t="s" s="2">
-        <v>169</v>
+        <v>14</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>14</v>
+        <v>173</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H93" t="s" s="2">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="I93" t="s" s="2">
         <v>17</v>
@@ -3939,28 +3963,28 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>170</v>
+        <v>14</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>171</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D94" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E94" t="s" s="2">
-        <v>14</v>
+        <v>174</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>172</v>
+        <v>14</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H94" t="s" s="2">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="I94" t="s" s="2">
         <v>17</v>
@@ -3986,7 +4010,7 @@
         <v>14</v>
       </c>
       <c r="E95" t="s" s="2">
-        <v>14</v>
+        <v>175</v>
       </c>
       <c r="F95" t="s" s="2">
         <v>14</v>
@@ -4021,7 +4045,7 @@
         <v>14</v>
       </c>
       <c r="E96" t="s" s="2">
-        <v>124</v>
+        <v>176</v>
       </c>
       <c r="F96" t="s" s="2">
         <v>14</v>
@@ -4056,7 +4080,7 @@
         <v>14</v>
       </c>
       <c r="E97" t="s" s="2">
-        <v>125</v>
+        <v>177</v>
       </c>
       <c r="F97" t="s" s="2">
         <v>14</v>
@@ -4079,28 +4103,28 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>14</v>
+        <v>178</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="D98" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E98" t="s" s="2">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="F98" t="s" s="2">
-        <v>14</v>
+        <v>180</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H98" t="s" s="2">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="I98" t="s" s="2">
         <v>17</v>
@@ -4117,7 +4141,7 @@
         <v>14</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="C99" t="s" s="2">
         <v>14</v>
@@ -4126,7 +4150,7 @@
         <v>14</v>
       </c>
       <c r="E99" t="s" s="2">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="F99" t="s" s="2">
         <v>14</v>
@@ -4152,7 +4176,7 @@
         <v>14</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="C100" t="s" s="2">
         <v>14</v>
@@ -4161,7 +4185,7 @@
         <v>14</v>
       </c>
       <c r="E100" t="s" s="2">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F100" t="s" s="2">
         <v>14</v>
@@ -4184,36 +4208,176 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>173</v>
+        <v>14</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C101" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D101" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E101" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="F101" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B102" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="C102" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D102" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E102" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="F102" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B103" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="C103" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D103" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E103" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="F103" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="C104" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D104" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E104" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="F104" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="B105" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="C105" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="D101" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E101" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="F101" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G101" t="s" s="2">
+      <c r="D105" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E105" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="F105" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G105" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="H101" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="I101" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="J101" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K101" t="s" s="2">
+      <c r="H105" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K105" t="s" s="2">
         <v>14</v>
       </c>
     </row>
